--- a/GenerateData/Document/Requirement/sprint01/ticket/Task 1100 - Create Layout.xlsx
+++ b/GenerateData/Document/Requirement/sprint01/ticket/Task 1100 - Create Layout.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects_all\AutomaticallyGenerateData\GenerateData\Document\Tasks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects_all\AutomaticallyGenerateData\GenerateData\Document\Requirement\sprint01\ticket\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B8B3BC-0B90-4443-B724-BCDAF7B54DB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C2B8D0-0E68-40DF-864B-329DA7A41D4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -188,9 +188,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="866774" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -206,7 +206,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10515601" y="2057400"/>
+          <a:off x="10391776" y="733425"/>
           <a:ext cx="866774" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -238,7 +238,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>GridLayout</a:t>
+            <a:t>Gridlayout</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -941,11 +941,177 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>103705</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Đường kết nối Mũi tên Thẳng 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66D7570D-33F8-4BA4-99A2-A46613F8F465}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9563100" y="865705"/>
+          <a:ext cx="828676" cy="363020"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="866774" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Hộp Văn bản 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{018A6A18-4F91-4F81-BB67-8CA1DBBC02A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10525126" y="2228850"/>
+          <a:ext cx="866774" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Boxlayout</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>75130</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Đường kết nối Mũi tên Thẳng 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{048A5CFE-AB66-4AE6-8389-CE83D201C71A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="19" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9467850" y="1885950"/>
+          <a:ext cx="1057276" cy="475180"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1213,8 +1379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/GenerateData/Document/Requirement/sprint01/ticket/Task 1100 - Create Layout.xlsx
+++ b/GenerateData/Document/Requirement/sprint01/ticket/Task 1100 - Create Layout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects_all\AutomaticallyGenerateData\GenerateData\Document\Requirement\sprint01\ticket\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C2B8D0-0E68-40DF-864B-329DA7A41D4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F39E23-DA66-4015-AFE6-6E34EF77CD5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1086,6 +1086,61 @@
         <a:xfrm>
           <a:off x="9467850" y="1885950"/>
           <a:ext cx="1057276" cy="475180"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>103705</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Đường kết nối Mũi tên Thẳng 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{680AB9EF-C83F-4254-B8D1-DA991C68C873}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9639300" y="1762125"/>
+          <a:ext cx="819151" cy="56080"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1379,8 +1434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
